--- a/biology/Histoire de la zoologie et de la botanique/Louis-Pierre_Vieillot/Louis-Pierre_Vieillot.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Louis-Pierre_Vieillot/Louis-Pierre_Vieillot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Pierre Vieillot, né le 10 mai 1748 à Yvetot et mort le 24 août 1830 à Sotteville-lès-Rouen, est un ornithologue français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Pierre Vieillot est le fils de Pierre Vieillot, bourgeois d'Yvetot, et de Suzanne Hue. Sa famille ayant des intérêts dans l'île de Saint-Domingue, Louis Vieillot y passe une grande partie de sa jeunesse.
 Banni de France durant la Révolution, il se réfugie aux États-Unis où il étudie l'avifaune. C'est de ce séjour qu'est tiré l'ouvrage, incomplet, Les Oiseaux de l'Amérique septentrionale (1808).
@@ -550,7 +564,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Histoire naturelle des plus beaux oiseaux chanteurs de la zone torride, Dufour, Paris, 1805.
 Histoire naturelle des oiseaux de l'Amérique septentrionale, Desray, Paris, 1807-1808.
